--- a/Utang Priorities.xlsx
+++ b/Utang Priorities.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\EkklesiaValencia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAFBBEE-DC2E-4134-A231-C2B47354327D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD24B35-4403-445E-8037-BC85D0B639D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BCED67DA-B7D2-4540-AF74-62435F6675C5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="47">
   <si>
     <t>JuanHand</t>
   </si>
@@ -142,6 +142,39 @@
   </si>
   <si>
     <t>Union Accnts</t>
+  </si>
+  <si>
+    <t>Mortuary Fund</t>
+  </si>
+  <si>
+    <t>Centro Supersales</t>
+  </si>
+  <si>
+    <t>Interest (Centro Groceries)</t>
+  </si>
+  <si>
+    <t>Witholding Tax</t>
+  </si>
+  <si>
+    <t>Educ Loan</t>
+  </si>
+  <si>
+    <t>Salary Deductions for Sept 30</t>
+  </si>
+  <si>
+    <t>Salary Earnings Sept 30</t>
+  </si>
+  <si>
+    <t>Basic</t>
+  </si>
+  <si>
+    <t>Gross Pay</t>
+  </si>
+  <si>
+    <t>Net Pay</t>
+  </si>
+  <si>
+    <t>Deduction For Sept 30</t>
   </si>
 </sst>
 </file>
@@ -196,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -204,6 +237,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -519,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCE0E96-5089-4CF9-94AC-6E62345DEFE2}">
-  <dimension ref="A2:U20"/>
+  <dimension ref="A2:Z29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,14 +575,16 @@
     <col min="7" max="7" width="9.140625" style="1"/>
     <col min="8" max="8" width="9.140625" style="2"/>
     <col min="13" max="13" width="6.42578125" customWidth="1"/>
-    <col min="14" max="14" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10.7109375" customWidth="1"/>
     <col min="19" max="19" width="6.42578125" customWidth="1"/>
     <col min="20" max="20" width="4.28515625" customWidth="1"/>
     <col min="21" max="21" width="11.5703125" customWidth="1"/>
+    <col min="25" max="25" width="7" style="1" customWidth="1"/>
+    <col min="26" max="26" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="K2" t="s">
         <v>16</v>
       </c>
@@ -554,7 +595,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
@@ -563,7 +604,7 @@
       </c>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -589,7 +630,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -618,7 +659,7 @@
         <v>331.11</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -641,7 +682,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -667,7 +708,7 @@
         <v>922.9</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -690,7 +731,7 @@
         <v>475.06</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -714,7 +755,7 @@
         <v>6496.3099999999995</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -740,7 +781,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
@@ -769,7 +810,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
@@ -785,66 +826,256 @@
       <c r="N12" s="1">
         <v>1500</v>
       </c>
-      <c r="S12" s="3" t="s">
+      <c r="S12" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="T12" s="3"/>
+      <c r="T12" s="5"/>
       <c r="U12" s="4">
         <f>SUM(U4:U11)</f>
         <v>9895.3799999999992</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="L13" s="3" t="s">
+      <c r="L13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="1">
         <f>SUM(N4:N12)</f>
         <v>6496.3099999999995</v>
       </c>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="C15" s="3" t="s">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="1">
         <f>SUM(E4:E12)</f>
         <v>28468.45</v>
       </c>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="20:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="K16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M16" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" t="s">
+        <v>41</v>
+      </c>
+      <c r="X16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="11:26" x14ac:dyDescent="0.25">
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T18" s="1"/>
-    </row>
-    <row r="19" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T19" s="1"/>
-    </row>
-    <row r="20" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T20" s="1"/>
+    <row r="18" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K18" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="1">
+        <v>250</v>
+      </c>
+      <c r="R18" t="s">
+        <v>28</v>
+      </c>
+      <c r="U18" s="1">
+        <v>540</v>
+      </c>
+      <c r="X18" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>96</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>11532.48</v>
+      </c>
+    </row>
+    <row r="19" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="1">
+        <v>200</v>
+      </c>
+      <c r="R19" t="s">
+        <v>29</v>
+      </c>
+      <c r="U19" s="1">
+        <v>288.32</v>
+      </c>
+    </row>
+    <row r="20" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
+        <v>19</v>
+      </c>
+      <c r="N20" s="1">
+        <v>278.37</v>
+      </c>
+      <c r="R20" t="s">
+        <v>39</v>
+      </c>
+      <c r="U20">
+        <v>26.57</v>
+      </c>
+    </row>
+    <row r="21" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1295</v>
+      </c>
+      <c r="R21" t="s">
+        <v>32</v>
+      </c>
+      <c r="U21" s="1">
+        <v>922.9</v>
+      </c>
+    </row>
+    <row r="22" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K22" t="s">
+        <v>21</v>
+      </c>
+      <c r="N22" s="1">
+        <v>780</v>
+      </c>
+      <c r="R22" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22">
+        <v>475.06</v>
+      </c>
+      <c r="X22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y22" s="6"/>
+      <c r="Z22" s="1">
+        <v>11532.48</v>
+      </c>
+    </row>
+    <row r="23" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K23" t="s">
+        <v>22</v>
+      </c>
+      <c r="N23" s="1">
+        <v>140</v>
+      </c>
+      <c r="R23" t="s">
+        <v>16</v>
+      </c>
+      <c r="U23" s="1">
+        <f>N29</f>
+        <v>6568.37</v>
+      </c>
+      <c r="X23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="1">
+        <f>Z22-U27</f>
+        <v>1376.2600000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K24" t="s">
+        <v>36</v>
+      </c>
+      <c r="N24" s="1">
+        <v>50</v>
+      </c>
+      <c r="R24" t="s">
+        <v>34</v>
+      </c>
+      <c r="U24" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K25" t="s">
+        <v>23</v>
+      </c>
+      <c r="N25" s="1">
+        <v>2500</v>
+      </c>
+      <c r="R25" t="s">
+        <v>40</v>
+      </c>
+      <c r="U25" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="26" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K26" t="s">
+        <v>24</v>
+      </c>
+      <c r="N26" s="1">
+        <v>50</v>
+      </c>
+      <c r="R26" t="s">
+        <v>35</v>
+      </c>
+      <c r="U26" s="1">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="27" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K27" t="s">
+        <v>37</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1000</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T27" s="3"/>
+      <c r="U27" s="4">
+        <f>SUM(U18:U26)</f>
+        <v>10156.219999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="K28" t="s">
+        <v>38</v>
+      </c>
+      <c r="N28" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="11:26" x14ac:dyDescent="0.25">
+      <c r="L29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="5"/>
+      <c r="N29" s="1">
+        <f>SUM(N18:N28)</f>
+        <v>6568.37</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
+    <mergeCell ref="X22:Y22"/>
+    <mergeCell ref="X23:Y23"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="S12:T12"/>
+    <mergeCell ref="L29:M29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
